--- a/statistics/HistoricalDistanceData/historical_distance/Q18641076-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q18641076-en.xlsx
@@ -31,39 +31,39 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Candlelight vigil for victims of Peshawar attack</t>
+  </si>
+  <si>
+    <t>This ISPR tribute to Peshawar's lost children will move you to tears</t>
+  </si>
+  <si>
     <t>After deadly Taliban attack, Army Public School reopens today</t>
   </si>
   <si>
-    <t>This ISPR tribute to Peshawar's lost children will move you to tears</t>
-  </si>
-  <si>
-    <t>Candlelight vigil for victims of Peshawar attack</t>
-  </si>
-  <si>
     <t>The world's five worst terror attacks involving children</t>
   </si>
   <si>
+    <t>Pakistan lifts moratorium on death penalty after Taliban attack</t>
+  </si>
+  <si>
     <t>Drone strike kills eight militants on Khyber Agency border</t>
   </si>
   <si>
-    <t>Pakistan lifts moratorium on death penalty after Taliban attack</t>
+    <t>2014-12-19T20:36:36UTC</t>
   </si>
   <si>
     <t>2015-01-05T00:00:00UTC</t>
   </si>
   <si>
-    <t>2014-12-19T20:36:36UTC</t>
-  </si>
-  <si>
     <t>2014-12-16T16:29:00UTC</t>
   </si>
   <si>
+    <t>1-01-01T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2014-12-05T00:00:00UTC</t>
   </si>
   <si>
-    <t>1-01-01T00:00:00UTC</t>
-  </si>
-  <si>
     <t>unknown</t>
   </si>
   <si>
@@ -73,22 +73,22 @@
     <t>day_0</t>
   </si>
   <si>
+    <t>http://globalnews.ca/news/1737225/candlelight-vigil-for-victims-of-peshawar-attack/</t>
+  </si>
+  <si>
+    <t>http://www.dawn.com/news/1156968</t>
+  </si>
+  <si>
     <t>http://www.dawn.com/news/1156533/after-deadly-taliban-attack-army-public-school-reopens-today</t>
   </si>
   <si>
-    <t>http://www.dawn.com/news/1156968</t>
-  </si>
-  <si>
-    <t>http://globalnews.ca/news/1737225/candlelight-vigil-for-victims-of-peshawar-attack/</t>
-  </si>
-  <si>
     <t>https://www.telegraph.co.uk/news/worldnews/11297108/The-worlds-five-worst-terror-attacks-involving-children.html</t>
   </si>
   <si>
+    <t>http://timesofindia.indiatimes.com/world/pakistan/Pakistan-lifts-moratorium-on-death-penalty-after-Taliban-attack/articleshow/45546231.cms</t>
+  </si>
+  <si>
     <t>http://www.dawn.com/news/1151855/drone-strike-kills-eight-militants-on-khyber-agency-border</t>
-  </si>
-  <si>
-    <t>http://timesofindia.indiatimes.com/world/pakistan/Pakistan-lifts-moratorium-on-death-penalty-after-Taliban-attack/articleshow/45546231.cms</t>
   </si>
 </sst>
 </file>
@@ -490,7 +490,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -524,7 +524,7 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
         <v>17</v>
